--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4047958.375989128</v>
+        <v>4042484.045225801</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359934</v>
+        <v>7168092.754378469</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095103</v>
+        <v>508977.7025103977</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7390132.669984924</v>
+        <v>7429745.665673316</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>157.7792027161091</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.98557267647116</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>68.48413147094594</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.4243429353002</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>136.6503078952901</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>105.5405020963163</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356729</v>
+        <v>65.52955937257109</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100831</v>
+        <v>24.3931923874759</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>158.807112991366</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.3706088824576</v>
       </c>
       <c r="U3" t="n">
-        <v>81.65654717711273</v>
+        <v>225.8957762080853</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3828901839844</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>137.9733075863171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>41.09565749669199</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>36.94339460316179</v>
       </c>
       <c r="G5" t="n">
-        <v>277.5282123114005</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>201.0891638436807</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
-        <v>231.4241432455063</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>99.66075074687578</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534536</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873206</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292607</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>67.61083201524988</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>162.3410403666946</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>209.4182421859766</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>307.6640389444871</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>78.32463362523188</v>
       </c>
       <c r="G13" t="n">
-        <v>98.50820702933029</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.3524204098382</v>
+        <v>54.77549063691215</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U13" t="n">
-        <v>286.211838205613</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534536</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873206</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292607</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>67.6108320152497</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>209.4182421859757</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>307.6640389444871</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>29.92203912074918</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S16" t="n">
-        <v>189.769025331442</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761693</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U16" t="n">
-        <v>286.211838205613</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.82764119510473</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>67.61083201524988</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>162.3410403666946</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>209.4182421859766</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>307.6640389444871</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986279</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465693</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>29.25600601213868</v>
       </c>
       <c r="I19" t="n">
-        <v>96.3524204098382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S19" t="n">
-        <v>189.769025331442</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761693</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V19" t="n">
-        <v>203.0744956111717</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365911</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534546</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>67.61083201524988</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>307.6640389444877</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.7316303924474</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986279</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>54.77549063691215</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S22" t="n">
-        <v>189.769025331442</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761693</v>
+        <v>49.27444973707511</v>
       </c>
       <c r="U22" t="n">
-        <v>286.211838205613</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="23">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.695578038925028</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986279</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143209</v>
+        <v>29.25600601213856</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761693</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="26">
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>40.31924309660612</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>201.0130390227251</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>46.90342393179403</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>54.53475924039562</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3009,10 +3009,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>132.2923367703474</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.4936743037169</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589016</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>70.57092427958133</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>180.6755658143348</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3796,7 +3796,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>17.25588147840188</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>223.2521261057163</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3985,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>97.37028815207087</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>89.23964247280907</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1660.92266508034</v>
+        <v>1373.898284266755</v>
       </c>
       <c r="C2" t="n">
-        <v>1660.92266508034</v>
+        <v>1004.935767326343</v>
       </c>
       <c r="D2" t="n">
-        <v>1302.656966473589</v>
+        <v>1004.935767326343</v>
       </c>
       <c r="E2" t="n">
-        <v>1302.656966473589</v>
+        <v>619.1475147280989</v>
       </c>
       <c r="F2" t="n">
-        <v>891.6710616839819</v>
+        <v>208.1616099384914</v>
       </c>
       <c r="G2" t="n">
-        <v>473.4173850623026</v>
+        <v>48.78867790201753</v>
       </c>
       <c r="H2" t="n">
-        <v>143.2540491192262</v>
+        <v>48.78867790201753</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369981</v>
+        <v>48.78867790201753</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015909</v>
+        <v>145.8220260169355</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060712</v>
+        <v>411.9946657882377</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927198</v>
+        <v>794.4819895615849</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689014</v>
+        <v>1236.679380149756</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811682</v>
+        <v>1671.399989274969</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633674</v>
+        <v>2036.706695416109</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054134</v>
+        <v>2310.813134530688</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.45131068499</v>
+        <v>2439.433895100876</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.45131068499</v>
+        <v>2370.258004726184</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.45131068499</v>
+        <v>2370.258004726184</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.45131068499</v>
+        <v>2150.637456306688</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.45131068499</v>
+        <v>2150.637456306688</v>
       </c>
       <c r="V2" t="n">
-        <v>2034.38842334142</v>
+        <v>2150.637456306688</v>
       </c>
       <c r="W2" t="n">
-        <v>2034.38842334142</v>
+        <v>2150.637456306688</v>
       </c>
       <c r="X2" t="n">
-        <v>1660.92266508034</v>
+        <v>2150.637456306688</v>
       </c>
       <c r="Y2" t="n">
-        <v>1660.92266508034</v>
+        <v>1760.498124330877</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8568241913216</v>
+        <v>988.7767857463779</v>
       </c>
       <c r="C3" t="n">
-        <v>814.4037949101946</v>
+        <v>814.3237564652509</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>665.3893468039996</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>506.1518917985442</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>359.6173338254291</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>221.5867197897825</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>114.9801520157257</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369981</v>
+        <v>48.78867790201753</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369981</v>
+        <v>81.32433366755083</v>
       </c>
       <c r="K3" t="n">
-        <v>130.1591986422601</v>
+        <v>317.5006075888141</v>
       </c>
       <c r="L3" t="n">
-        <v>501.770269185293</v>
+        <v>696.4731501252486</v>
       </c>
       <c r="M3" t="n">
-        <v>987.402082387482</v>
+        <v>1190.695453925535</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.59413803003</v>
+        <v>1713.705364890509</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119903</v>
+        <v>2125.741576892533</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695911</v>
+        <v>2439.433895100876</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.45131068499</v>
+        <v>2439.433895100876</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885992</v>
+        <v>2414.794306830699</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926783</v>
+        <v>2254.383081586895</v>
       </c>
       <c r="T3" t="n">
-        <v>2144.554785926783</v>
+        <v>2055.018830190473</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.073425141821</v>
+        <v>1826.841278465134</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.921316910078</v>
+        <v>1826.841278465134</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.683960181876</v>
+        <v>1572.603921736933</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.832459976343</v>
+        <v>1364.7524215314</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.07216121139</v>
+        <v>1156.992122766446</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>345.3387592084287</v>
+        <v>640.1074995536167</v>
       </c>
       <c r="C4" t="n">
-        <v>345.3387592084287</v>
+        <v>640.1074995536167</v>
       </c>
       <c r="D4" t="n">
-        <v>195.2221197960929</v>
+        <v>489.9908601412809</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369981</v>
+        <v>342.0777665588878</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369981</v>
+        <v>342.0777665588878</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369981</v>
+        <v>342.0777665588878</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369981</v>
+        <v>188.1556552619338</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369981</v>
+        <v>48.78867790201753</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369981</v>
+        <v>48.78867790201753</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181607</v>
+        <v>93.58729110051682</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365664</v>
+        <v>206.4405269748606</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950601</v>
+        <v>335.8175641076058</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896746</v>
+        <v>467.5529208910839</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885935</v>
+        <v>573.2155493514923</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546197</v>
+        <v>640.1074995536167</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546197</v>
+        <v>640.1074995536167</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546197</v>
+        <v>640.1074995536167</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546197</v>
+        <v>640.1074995536167</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546197</v>
+        <v>640.1074995536167</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546197</v>
+        <v>640.1074995536167</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546197</v>
+        <v>640.1074995536167</v>
       </c>
       <c r="W4" t="n">
-        <v>573.328310106446</v>
+        <v>640.1074995536167</v>
       </c>
       <c r="X4" t="n">
-        <v>345.3387592084287</v>
+        <v>640.1074995536167</v>
       </c>
       <c r="Y4" t="n">
-        <v>345.3387592084287</v>
+        <v>640.1074995536167</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1207.668958723993</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>1207.668958723993</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D5" t="n">
-        <v>1207.668958723993</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="E5" t="n">
-        <v>821.8807061257487</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="F5" t="n">
-        <v>814.9352053765452</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960885</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1597.808290699805</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1207.668958723993</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4622,55 +4622,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.546485980902</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.6104068172087</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>154.6104068172087</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>154.6104068172087</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>154.6104068172087</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>154.6104068172087</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>154.6104068172087</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541693</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W10" t="n">
-        <v>154.6104068172087</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X10" t="n">
-        <v>154.6104068172087</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y10" t="n">
-        <v>154.6104068172087</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>2067.381871868335</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>1740.416253688455</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1424.147453842235</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1080.356100004522</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>711.3670939754462</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001588</v>
+        <v>338.2915425809741</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089258</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839447</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J11" t="n">
-        <v>451.845814427773</v>
+        <v>271.583971909298</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>926.3073040445976</v>
       </c>
       <c r="L11" t="n">
-        <v>1586.925993846825</v>
+        <v>1377.341517293006</v>
       </c>
       <c r="M11" t="n">
-        <v>2120.45789851875</v>
+        <v>1910.873421964931</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.236715577532</v>
+        <v>2457.652239023713</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906987</v>
+        <v>3337.616889353168</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353933</v>
+        <v>3827.938619201146</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862921</v>
+        <v>4076.224980956828</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419723</v>
+        <v>4135.24204751363</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946818</v>
+        <v>4066.948277801257</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.78330633104</v>
+        <v>3902.96742894601</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604876</v>
+        <v>3691.433850980377</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261305</v>
+        <v>3402.367862397337</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991191</v>
+        <v>3091.596105887755</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730111</v>
+        <v>2760.127246387206</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754299</v>
+        <v>2411.984813171925</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>957.7365789991978</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>783.2835497180708</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>634.3491400568196</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>475.111685051364</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>328.577127078249</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>192.2140269108671</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>101.7121325487346</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839447</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>176.38211044089</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>414.6463094212371</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>781.3444697339025</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.620794956219</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.143838510673</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.105117928728</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2423.604709404831</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.246267051431</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.101913643946</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2451.664027137426</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.021026815281</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2030.953179949697</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1795.801071717954</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1541.563714989752</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1333.71221478422</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1125.951916019266</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>902.3463618439682</v>
+        <v>683.8305684178259</v>
       </c>
       <c r="C13" t="n">
-        <v>733.4101789160612</v>
+        <v>556.8912842504503</v>
       </c>
       <c r="D13" t="n">
-        <v>733.4101789160612</v>
+        <v>448.7715435986458</v>
       </c>
       <c r="E13" t="n">
-        <v>585.497085333668</v>
+        <v>342.855348776784</v>
       </c>
       <c r="F13" t="n">
-        <v>438.6071378357575</v>
+        <v>263.7395572361457</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121915</v>
+        <v>138.033619371396</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300492</v>
+        <v>138.033619371396</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839447</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>168.9886338724049</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442061</v>
+        <v>414.1369772964779</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927022</v>
+        <v>771.8579362201708</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1157.176142294916</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1539.745679475978</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1880.236438871588</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952188</v>
+        <v>2154.005099780444</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>2272.776556408155</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>2224.942997926215</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>2075.254012513572</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104703</v>
+        <v>1895.484295843629</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230346</v>
+        <v>1648.378327729804</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024459</v>
+        <v>1435.690738284449</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.138940987498</v>
+        <v>1188.270467008019</v>
       </c>
       <c r="X13" t="n">
-        <v>1123.138940987498</v>
+        <v>1002.277814870533</v>
       </c>
       <c r="Y13" t="n">
-        <v>902.3463618439682</v>
+        <v>823.4821344875344</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690177</v>
+        <v>2067.381871868336</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>1740.416253688456</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1424.147453842236</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1080.356100004523</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>711.3670939754463</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001588</v>
+        <v>338.2915425809741</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089258</v>
+        <v>82.7048409502726</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>82.7048409502726</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>438.9896209296511</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>965.8733918176495</v>
       </c>
       <c r="L14" t="n">
-        <v>1797.11783460013</v>
+        <v>1416.907605066058</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272055</v>
+        <v>1950.439509737983</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330837</v>
+        <v>2930.19178196463</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660292</v>
+        <v>3433.164252843967</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107238</v>
+        <v>3827.938619201145</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.03465586292</v>
+        <v>4076.224980956827</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4135.24204751363</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4066.948277801256</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>3902.967428946009</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604876</v>
+        <v>3691.433850980377</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261305</v>
+        <v>3402.367862397338</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991191</v>
+        <v>3091.596105887756</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730111</v>
+        <v>2760.127246387207</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754299</v>
+        <v>2411.984813171927</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>957.7365789991978</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>783.2835497180708</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>634.3491400568196</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>475.111685051364</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>328.577127078249</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>192.2140269108671</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>101.7121325487346</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>82.7048409502726</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>176.3821104408899</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>414.6463094212371</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>781.3444697339025</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.620794956219</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.143838510673</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.105117928728</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2423.604709404831</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.246267051431</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.101913643946</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2451.664027137426</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.021026815281</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2030.953179949697</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1795.801071717954</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1541.563714989752</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1333.71221478422</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1125.951916019266</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410.153818571586</v>
+        <v>683.8305684178259</v>
       </c>
       <c r="C16" t="n">
-        <v>410.153818571586</v>
+        <v>556.8912842504503</v>
       </c>
       <c r="D16" t="n">
-        <v>410.153818571586</v>
+        <v>448.7715435986458</v>
       </c>
       <c r="E16" t="n">
-        <v>410.153818571586</v>
+        <v>342.855348776784</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736756</v>
+        <v>342.855348776784</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839444</v>
+        <v>217.1494109120342</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839444</v>
+        <v>112.9291228904233</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839444</v>
+        <v>82.7048409502726</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>168.9886338724048</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442061</v>
+        <v>414.1369772964779</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927022</v>
+        <v>771.8579362201707</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1157.176142294916</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1539.745679475978</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1880.236438871588</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>2154.005099780444</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>2272.776556408155</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>2224.942997926215</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>2075.254012513572</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501055</v>
+        <v>1895.484295843629</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626698</v>
+        <v>1648.378327729804</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208114</v>
+        <v>1435.690738284449</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838507</v>
+        <v>1188.270467008019</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858333</v>
+        <v>1002.277814870533</v>
       </c>
       <c r="Y16" t="n">
-        <v>410.153818571586</v>
+        <v>823.4821344875344</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2067.381871868335</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>1740.416253688455</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1424.147453842235</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1080.356100004522</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551634</v>
+        <v>711.3670939754461</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>338.2915425809741</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>438.9896209296511</v>
       </c>
       <c r="K17" t="n">
-        <v>919.9473678912375</v>
+        <v>1093.712953064951</v>
       </c>
       <c r="L17" t="n">
-        <v>1784.466183544592</v>
+        <v>1544.747166313359</v>
       </c>
       <c r="M17" t="n">
-        <v>2317.998088216517</v>
+        <v>2078.279070985284</v>
       </c>
       <c r="N17" t="n">
-        <v>3297.750360443164</v>
+        <v>2625.057888044066</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>3433.164252843967</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679679</v>
+        <v>3827.938619201146</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188667</v>
+        <v>4076.224980956828</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>4135.24204751363</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4066.948277801257</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>3902.96742894601</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>3691.433850980377</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3402.367862397337</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3091.596105887755</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>2760.127246387206</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2411.984813171925</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>957.7365789991978</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>783.2835497180708</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>634.3491400568196</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>475.111685051364</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>328.577127078249</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>192.2140269108671</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>101.7121325487346</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>176.38211044089</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>414.6463094212371</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>781.3444697339025</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.620794956219</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.143838510673</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.105117928728</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2423.604709404831</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.246267051431</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.101913643946</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2451.664027137426</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.021026815281</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2030.953179949697</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1795.801071717954</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1541.563714989752</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1333.71221478422</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1125.951916019266</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>827.5554641779664</v>
+        <v>683.8305684178259</v>
       </c>
       <c r="C19" t="n">
-        <v>658.6192812500594</v>
+        <v>556.8912842504503</v>
       </c>
       <c r="D19" t="n">
-        <v>508.5026418377236</v>
+        <v>448.7715435986458</v>
       </c>
       <c r="E19" t="n">
-        <v>360.5895482553303</v>
+        <v>342.855348776784</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553303</v>
+        <v>237.9623000394049</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300492</v>
+        <v>112.2563621746551</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300492</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>168.9886338724049</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442061</v>
+        <v>414.1369772964779</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927022</v>
+        <v>771.8579362201708</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1157.176142294916</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1539.745679475978</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1880.236438871588</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>2154.005099780444</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>2272.776556408155</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>2224.942997926215</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>2075.254012513572</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501055</v>
+        <v>1895.484295843629</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.890966501055</v>
+        <v>1648.378327729804</v>
       </c>
       <c r="V19" t="n">
-        <v>1337.765213358457</v>
+        <v>1435.690738284449</v>
       </c>
       <c r="W19" t="n">
-        <v>1048.348043321497</v>
+        <v>1188.270467008019</v>
       </c>
       <c r="X19" t="n">
-        <v>1048.348043321497</v>
+        <v>1002.277814870533</v>
       </c>
       <c r="Y19" t="n">
-        <v>827.5554641779664</v>
+        <v>823.4821344875344</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690177</v>
+        <v>2067.381871868335</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749766</v>
+        <v>1740.416253688455</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1424.147453842236</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1080.356100004523</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551633</v>
+        <v>711.3670939754463</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>338.2915425809741</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839444</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>271.583971909298</v>
       </c>
       <c r="K20" t="n">
-        <v>1014.851249206416</v>
+        <v>703.273946445629</v>
       </c>
       <c r="L20" t="n">
-        <v>1465.885462454825</v>
+        <v>1154.308159694038</v>
       </c>
       <c r="M20" t="n">
-        <v>1999.417367126749</v>
+        <v>1687.840064365962</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353396</v>
+        <v>2234.618881424745</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232733</v>
+        <v>3114.5835317542</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679679</v>
+        <v>3827.938619201146</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188667</v>
+        <v>4076.224980956828</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419722</v>
+        <v>4135.24204751363</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946817</v>
+        <v>4066.948277801257</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331039</v>
+        <v>3902.96742894601</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604876</v>
+        <v>3691.433850980378</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261305</v>
+        <v>3402.367862397338</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991191</v>
+        <v>3091.596105887755</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730111</v>
+        <v>2760.127246387206</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754299</v>
+        <v>2411.984813171925</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>957.7365789991978</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>783.2835497180708</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>634.3491400568196</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>475.111685051364</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>328.577127078249</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>192.2140269108671</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>101.7121325487346</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839444</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>176.38211044089</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>414.6463094212371</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>781.3444697339025</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.620794956219</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.143838510673</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.105117928728</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2423.604709404831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.246267051431</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.101913643946</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2451.664027137426</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.021026815281</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2030.953179949697</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1795.801071717954</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1541.563714989752</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1333.71221478422</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1125.951916019266</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>411.387164874212</v>
+        <v>813.8281136361777</v>
       </c>
       <c r="C22" t="n">
-        <v>242.4509819463049</v>
+        <v>686.8888294688021</v>
       </c>
       <c r="D22" t="n">
-        <v>242.4509819463049</v>
+        <v>578.7690888169976</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463049</v>
+        <v>472.8528939951358</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839444</v>
+        <v>367.9598452577567</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839444</v>
+        <v>242.2539073930069</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839444</v>
+        <v>138.033619371396</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839444</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>168.9886338724049</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442061</v>
+        <v>414.1369772964779</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927022</v>
+        <v>771.8579362201708</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1157.176142294916</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1539.745679475978</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1880.236438871588</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>2154.005099780444</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>2272.776556408155</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>2224.942997926215</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>2075.254012513572</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501055</v>
+        <v>2025.481841061981</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626698</v>
+        <v>1778.375872948156</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208114</v>
+        <v>1565.6882835028</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838507</v>
+        <v>1318.268012226371</v>
       </c>
       <c r="X22" t="n">
-        <v>709.6864413838507</v>
+        <v>1132.275360088885</v>
       </c>
       <c r="Y22" t="n">
-        <v>488.8938622403205</v>
+        <v>953.4796797058862</v>
       </c>
     </row>
     <row r="23">
@@ -5968,73 +5968,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3027.596327402151</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.393206660291</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1023.336921276364</v>
+        <v>696.6867619159476</v>
       </c>
       <c r="C25" t="n">
-        <v>854.4007383484575</v>
+        <v>569.747477748572</v>
       </c>
       <c r="D25" t="n">
-        <v>704.2840989361216</v>
+        <v>461.6277370967675</v>
       </c>
       <c r="E25" t="n">
-        <v>556.3710053537284</v>
+        <v>355.7115422749057</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558179</v>
+        <v>250.8184935375266</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305368</v>
+        <v>125.1125556727768</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6147,52 +6147,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953298</v>
+        <v>181.8448273705267</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442061</v>
+        <v>426.9931707945997</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927022</v>
+        <v>784.7141297182925</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1170.032335793038</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1552.601872974099</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1893.092632369709</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>2166.861293278565</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>2285.632749906277</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>2237.799191424336</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>2088.110206011694</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1908.340489341751</v>
       </c>
       <c r="U25" t="n">
-        <v>1734.576850674229</v>
+        <v>1661.234521227926</v>
       </c>
       <c r="V25" t="n">
-        <v>1479.892362468342</v>
+        <v>1448.54693178257</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.892362468342</v>
+        <v>1201.126660506141</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.902811570324</v>
+        <v>1015.134008368655</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.110232426794</v>
+        <v>836.3383279856561</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K26" t="n">
-        <v>1067.865561890629</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1518.899775139038</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M26" t="n">
-        <v>2497.450077968866</v>
+        <v>2055.398642844496</v>
       </c>
       <c r="N26" t="n">
-        <v>3044.228895027648</v>
+        <v>2602.177459903278</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>709.4168978689405</v>
+        <v>623.0432015923082</v>
       </c>
       <c r="C28" t="n">
-        <v>540.4807149410336</v>
+        <v>454.1070186644013</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>303.9903792520655</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6420,16 +6420,16 @@
         <v>1542.890966501056</v>
       </c>
       <c r="V28" t="n">
-        <v>1339.847492740728</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W28" t="n">
-        <v>1339.847492740728</v>
+        <v>1253.473796464095</v>
       </c>
       <c r="X28" t="n">
-        <v>1111.85794184271</v>
+        <v>1025.484245566078</v>
       </c>
       <c r="Y28" t="n">
-        <v>891.0653626991802</v>
+        <v>804.6916664225479</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>999.1036114208126</v>
+        <v>692.8920075170273</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>692.8920075170273</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>542.7753681046916</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>394.8622745222984</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>247.9723270243881</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
         <v>192.8867116300491</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W31" t="n">
-        <v>999.1036114208126</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X31" t="n">
-        <v>999.1036114208126</v>
+        <v>874.540472347267</v>
       </c>
       <c r="Y31" t="n">
-        <v>999.1036114208126</v>
+        <v>874.540472347267</v>
       </c>
     </row>
     <row r="32">
@@ -6694,25 +6694,25 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>1622.425187676631</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6782,10 +6782,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1057.160872593635</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1057.160872593635</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>836.3682934501052</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1453.840519464784</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="C37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="D37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="E37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7128,19 +7128,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>481.6968904858347</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7153,22 +7153,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7183,19 +7183,19 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2536.15366264131</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3082.932479700092</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7256,7 +7256,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320243</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3773.434671845129</v>
+        <v>482.6709267727787</v>
       </c>
       <c r="C40" t="n">
-        <v>3773.434671845129</v>
+        <v>313.7347438448718</v>
       </c>
       <c r="D40" t="n">
-        <v>3623.318032432793</v>
+        <v>313.7347438448718</v>
       </c>
       <c r="E40" t="n">
-        <v>3475.4049388504</v>
+        <v>313.7347438448718</v>
       </c>
       <c r="F40" t="n">
-        <v>3328.51499135249</v>
+        <v>166.8447963469614</v>
       </c>
       <c r="G40" t="n">
-        <v>3160.812154727209</v>
+        <v>166.8447963469614</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4586.365838246547</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4403.865266716916</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U40" t="n">
-        <v>4403.865266716916</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V40" t="n">
-        <v>4403.865266716916</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W40" t="n">
-        <v>4403.865266716916</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X40" t="n">
-        <v>4175.875715818899</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y40" t="n">
-        <v>3955.083136675369</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7414,16 +7414,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1453.840519464784</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>260.9043113423046</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C43" t="n">
-        <v>260.9043113423046</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D43" t="n">
-        <v>260.9043113423046</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E43" t="n">
-        <v>112.9912177599115</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1509.069652587648</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1254.385164381761</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>964.9679943448</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="44">
@@ -7633,7 +7633,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
@@ -7648,19 +7648,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7730,10 +7730,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>460.1767209741892</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C46" t="n">
-        <v>291.2405380462823</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D46" t="n">
-        <v>291.2405380462823</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E46" t="n">
-        <v>291.2405380462823</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F46" t="n">
-        <v>291.2405380462823</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7836,22 +7836,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1584.686071686221</v>
       </c>
       <c r="U46" t="n">
-        <v>1453.060509258584</v>
+        <v>1584.686071686221</v>
       </c>
       <c r="V46" t="n">
-        <v>1198.376021052697</v>
+        <v>1330.001583480334</v>
       </c>
       <c r="W46" t="n">
-        <v>908.9588510157366</v>
+        <v>1040.584413443373</v>
       </c>
       <c r="X46" t="n">
-        <v>680.9693001177193</v>
+        <v>812.5948625453557</v>
       </c>
       <c r="Y46" t="n">
-        <v>460.1767209741892</v>
+        <v>591.8022834018255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262986</v>
+        <v>94.20885155886715</v>
       </c>
       <c r="K3" t="n">
-        <v>115.1204337631324</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>51.49421911426668</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>29.61882225792323</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>96.51248837454494</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>195.0145426243958</v>
       </c>
       <c r="L14" t="n">
-        <v>241.9338129178271</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9166,28 +9166,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>135.6385654278971</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>308.2160544652165</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>231.5010718068652</v>
+        <v>98.85919277422676</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>229.1155640189935</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>285.0508825989993</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>411.0304280899001</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>19.79750571619297</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10588,19 +10588,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>219.3344627260163</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225791909</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,22 +10831,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>173.2204606877393</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>219.3344627260163</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>39.48321557772681</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>25.51948462477341</v>
       </c>
       <c r="G13" t="n">
-        <v>67.51760122969804</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004744</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761693</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.3524204098382</v>
+        <v>24.85345151616297</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004744</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>147.7570121569902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143209</v>
+        <v>73.92207912925615</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>54.77549063691215</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004744</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.211838205613</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>49.06314771265644</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>103.10034978949</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.3524204098382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004744</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>128.6975697661681</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>172.1364021430124</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>73.92207912925628</v>
       </c>
       <c r="I25" t="n">
-        <v>96.3524204098382</v>
+        <v>54.77549063691215</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004744</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.211838205613</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>106.1147195499631</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24660,10 +24660,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>51.12460430110286</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>120.3433971668338</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.4910490186326</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>154.2306615662436</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>108.3383058782204</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>74.18409063473945</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>38.87338346183444</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>128.1651665445294</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25836,13 +25836,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>62.95971209989662</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>68.65552010695735</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>130.3093068033601</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>685869.3626787311</v>
+        <v>686042.2740946828</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>623391.6057536904</v>
+        <v>631103.5355312787</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>623391.6057536904</v>
+        <v>631103.5355312787</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>623391.6057536904</v>
+        <v>631103.5355312787</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>623391.6057536904</v>
+        <v>631103.5355312787</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>623391.6057536904</v>
+        <v>641233.6965656371</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>623391.6057536904</v>
+        <v>623391.6057536905</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>623391.6057536905</v>
+        <v>623391.6057536904</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>623391.6057536905</v>
+        <v>623391.6057536904</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>623391.6057536905</v>
+        <v>623391.6057536904</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>794163.5737739661</v>
+        <v>817953.0281898959</v>
       </c>
       <c r="F2" t="n">
+        <v>817953.0281898957</v>
+      </c>
+      <c r="G2" t="n">
+        <v>817953.0281898957</v>
+      </c>
+      <c r="H2" t="n">
+        <v>817953.0281898957</v>
+      </c>
+      <c r="I2" t="n">
+        <v>817953.0281898957</v>
+      </c>
+      <c r="J2" t="n">
         <v>794163.5737739658</v>
       </c>
-      <c r="G2" t="n">
-        <v>794163.5737739662</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>794163.5737739658</v>
       </c>
-      <c r="I2" t="n">
-        <v>794163.5737739664</v>
-      </c>
-      <c r="J2" t="n">
-        <v>794163.5737739662</v>
-      </c>
-      <c r="K2" t="n">
-        <v>794163.5737739661</v>
-      </c>
       <c r="L2" t="n">
-        <v>794163.5737739661</v>
+        <v>794163.5737739659</v>
       </c>
       <c r="M2" t="n">
         <v>794163.5737739662</v>
@@ -26352,10 +26352,10 @@
         <v>794163.5737739659</v>
       </c>
       <c r="O2" t="n">
-        <v>794163.5737739664</v>
+        <v>794163.5737739659</v>
       </c>
       <c r="P2" t="n">
-        <v>794163.5737739662</v>
+        <v>794163.5737739659</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.684410648</v>
+        <v>514932.2460552459</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446921</v>
+        <v>71319.01234894875</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>712656.7510332197</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>42734.14789017563</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832159</v>
+        <v>159565.8105124435</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220083</v>
+        <v>16581.91113571382</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>89594.62928262031</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760457</v>
+        <v>229954.3653228462</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26426,34 +26426,34 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289567</v>
+        <v>60371.09069970024</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289565</v>
+        <v>60371.09069970022</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289572</v>
+        <v>60371.09069970024</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289567</v>
+        <v>60371.0906997002</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289572</v>
+        <v>42242.721256406</v>
       </c>
       <c r="J4" t="n">
         <v>28561.83935289577</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
+        <v>28561.83935289572</v>
+      </c>
+      <c r="N4" t="n">
         <v>28561.83935289575</v>
-      </c>
-      <c r="N4" t="n">
-        <v>28561.83935289572</v>
       </c>
       <c r="O4" t="n">
         <v>28561.83935289575</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140123</v>
+        <v>77732.73194373876</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>90108.14210422119</v>
+      </c>
+      <c r="F5" t="n">
+        <v>90108.14210422119</v>
+      </c>
+      <c r="G5" t="n">
+        <v>90108.14210422119</v>
+      </c>
+      <c r="H5" t="n">
+        <v>90108.14210422119</v>
+      </c>
+      <c r="I5" t="n">
+        <v>99878.84916279376</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371367</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
+        <v>96383.51825371363</v>
+      </c>
+      <c r="N5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="N5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15684.0201461885</v>
+        <v>-1577.573457547609</v>
       </c>
       <c r="C6" t="n">
-        <v>436467.6367633713</v>
+        <v>456941.2639888916</v>
       </c>
       <c r="D6" t="n">
         <v>528260.2763378402</v>
       </c>
       <c r="E6" t="n">
-        <v>-58159.19782604997</v>
+        <v>-45260.17418910496</v>
       </c>
       <c r="F6" t="n">
-        <v>669218.2161673566</v>
+        <v>667396.5768441147</v>
       </c>
       <c r="G6" t="n">
-        <v>669218.2161673568</v>
+        <v>667396.5768441146</v>
       </c>
       <c r="H6" t="n">
-        <v>669218.2161673566</v>
+        <v>667396.5768441147</v>
       </c>
       <c r="I6" t="n">
-        <v>669218.2161673571</v>
+        <v>633020.0913386607</v>
       </c>
       <c r="J6" t="n">
-        <v>514491.6804841408</v>
+        <v>508980.450752655</v>
       </c>
       <c r="K6" t="n">
-        <v>647876.1175851559</v>
+        <v>651964.3501293848</v>
       </c>
       <c r="L6" t="n">
-        <v>669218.2161673567</v>
+        <v>668546.2612650987</v>
       </c>
       <c r="M6" t="n">
-        <v>539575.9013284119</v>
+        <v>578951.6319824787</v>
       </c>
       <c r="N6" t="n">
-        <v>669218.2161673566</v>
+        <v>668546.2612650986</v>
       </c>
       <c r="O6" t="n">
-        <v>669218.2161673571</v>
+        <v>668546.2612650987</v>
       </c>
       <c r="P6" t="n">
-        <v>669218.2161673568</v>
+        <v>668546.2612650987</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435497</v>
+        <v>322.281501752543</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712476</v>
+        <v>609.8584737752191</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.512930604931</v>
+        <v>1033.810511878408</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.51293060493</v>
+        <v>1033.810511878407</v>
       </c>
       <c r="G4" t="n">
-        <v>1194.51293060493</v>
+        <v>1033.810511878408</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.51293060493</v>
+        <v>1033.810511878408</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435497</v>
+        <v>322.281501752543</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353701</v>
+        <v>55.46216246454367</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712476</v>
+        <v>609.8584737752191</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330809</v>
+        <v>64.42879897933653</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503751</v>
+        <v>359.523239123852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>160.7024187265226</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712476</v>
+        <v>609.8584737752193</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330809</v>
+        <v>64.42879897933631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503751</v>
+        <v>359.5232391238516</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712476</v>
+        <v>609.8584737752191</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330809</v>
+        <v>64.42879897933653</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503751</v>
+        <v>359.523239123852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>256.2279307718801</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.2061973727592</v>
       </c>
       <c r="I2" t="n">
-        <v>68.00914811940829</v>
+        <v>160.5271153138635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174312</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164568</v>
+        <v>179.4964928176581</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>251.2420045856648</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>32.72485932357289</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>144.2414820852993</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>167.4098159946427</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3153692344725</v>
+        <v>4.677211688799645</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848777</v>
+        <v>52.27093029487726</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731838</v>
+        <v>37.4975364870604</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631663</v>
+        <v>151.1621732186764</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467086</v>
+        <v>213.8885055966505</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5851113727656</v>
+        <v>225.4624368737947</v>
       </c>
       <c r="U4" t="n">
-        <v>286.28889559408</v>
+        <v>286.2873295366464</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>245.427340839899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>369.9326511385497</v>
       </c>
       <c r="G5" t="n">
-        <v>136.2559577093945</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>157.4983735401874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>17.49548950841407</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
-        <v>154.8137954105473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>56.51013809491937</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.59587156758265</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="P19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>41.57692977292527</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Q22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="S22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="S25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="26">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672561</v>
+        <v>1.2956040271459</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212161</v>
+        <v>13.26860474300796</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452644</v>
+        <v>49.94877425654237</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676341</v>
+        <v>109.9627722989745</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015736</v>
+        <v>164.8056907680605</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787778</v>
+        <v>204.4560325138268</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589797</v>
+        <v>227.4967306315827</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095243</v>
+        <v>231.177865573711</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811553</v>
+        <v>218.294703028779</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579889</v>
+        <v>186.3094786086145</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709653</v>
+        <v>139.910659386452</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940656</v>
+        <v>81.38498647020374</v>
       </c>
       <c r="S2" t="n">
-        <v>28.0650316697885</v>
+        <v>29.52357676858723</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216637</v>
+        <v>5.671506628831182</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380483</v>
+        <v>0.103648322171672</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540503</v>
+        <v>0.6932092679205641</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014118</v>
+        <v>6.694942140180186</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784779</v>
+        <v>23.86707347884399</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403684</v>
+        <v>65.49307386086349</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683582</v>
+        <v>111.9380948115413</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966503</v>
+        <v>150.5145824930155</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247346</v>
+        <v>175.6434184551359</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302326</v>
+        <v>180.2921770983401</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382928</v>
+        <v>164.9321191091528</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723818</v>
+        <v>132.3725662575681</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338368</v>
+        <v>88.48755497175483</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163482</v>
+        <v>43.03978244159434</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422106</v>
+        <v>12.87605811247187</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945491</v>
+        <v>2.794119812364027</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276648</v>
+        <v>0.04560587288951082</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654174</v>
+        <v>0.581163363816061</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967078</v>
+        <v>5.167070634655528</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584365</v>
+        <v>17.47716734094119</v>
       </c>
       <c r="J4" t="n">
-        <v>39.058378378185</v>
+        <v>41.08824982179551</v>
       </c>
       <c r="K4" t="n">
-        <v>64.1849139350912</v>
+        <v>67.52061626881144</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448217</v>
+        <v>86.40314228952603</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502173</v>
+        <v>91.09999892982127</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361435</v>
+        <v>88.93384457377965</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395921</v>
+        <v>82.14479982374655</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230464</v>
+        <v>70.28906720189885</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.260347594376</v>
+        <v>48.66450676463398</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400322</v>
+        <v>26.13121815849307</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263679</v>
+        <v>10.12809244032171</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515874</v>
+        <v>2.483152554486805</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084098</v>
+        <v>0.03169981984451246</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33268,13 +33268,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33976,10 +33976,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34213,10 +34213,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302157</v>
+        <v>98.01348294436194</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277578</v>
+        <v>268.8612522942447</v>
       </c>
       <c r="L2" t="n">
-        <v>376.250147259241</v>
+        <v>386.35083209429</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245394</v>
+        <v>446.6640308971425</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249176</v>
+        <v>439.1117263891043</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222139</v>
+        <v>368.9966728698377</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742021</v>
+        <v>276.8751910248276</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564205</v>
+        <v>129.9199601719071</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>32.86429875306395</v>
       </c>
       <c r="K3" t="n">
-        <v>83.6870428571316</v>
+        <v>238.5618928497609</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202353</v>
+        <v>382.8005480166005</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527162</v>
+        <v>499.2144482831175</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904528</v>
+        <v>528.2928393585603</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705779</v>
+        <v>416.1981939414379</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979887</v>
+        <v>316.860927483175</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132112</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920835</v>
+        <v>45.25112444292859</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047983</v>
+        <v>113.9931675498422</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368623</v>
+        <v>130.6838758916618</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228429</v>
+        <v>133.0660169530082</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079989</v>
+        <v>106.7299277377862</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719813</v>
+        <v>67.56762646679233</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>485.2089366502554</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35427,10 +35427,10 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>495.2744745939168</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130661</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170198</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934837</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675399</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451103</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789353</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>532.2058291797963</v>
       </c>
       <c r="L14" t="n">
-        <v>697.5239273101593</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130661</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789353</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>472.8298519832976</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>816.2690553534356</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130661</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789353</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>568.6923583622657</v>
+        <v>436.0504793296273</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36132,19 +36132,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130661</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789353</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>737.1685649072126</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130661</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L25" t="n">
-        <v>319.757372170198</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934837</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675399</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451103</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789353</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>622.2421691543998</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>588.5891319493454</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36618,7 +36618,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>866.6205424822323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,16 +36846,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>558.7186215464197</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>674.9245771183485</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37329,7 +37329,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014387</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37551,22 +37551,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>681.2734615759584</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37782,19 +37782,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>674.9245771183485</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37861,10 +37861,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>578.4043314079536</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4042484.045225801</v>
+        <v>4045623.75240536</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7168092.754378469</v>
+        <v>6663746.095359937</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>508977.7025103977</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7429745.665673316</v>
+        <v>7390132.669984924</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>157.7792027161091</v>
+        <v>110.735135500003</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>68.48413147094594</v>
+        <v>72.50477145174357</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.4243429353002</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6503078952901</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.5405020963163</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>65.52955937257109</v>
+        <v>66.70865780356742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>24.3931923874759</v>
+        <v>59.24433418100854</v>
       </c>
       <c r="S3" t="n">
-        <v>158.807112991366</v>
+        <v>69.38808039435312</v>
       </c>
       <c r="T3" t="n">
-        <v>197.3706088824576</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8957762080853</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>99.55849178709865</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3828901839844</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>137.9733075863171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>36.94339460316179</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>57.44899573820114</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>201.0891638436807</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.0891638436807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>290.5286403308938</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.52687838733165</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.1569118905546</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>323.6959619980816</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>313.106111847757</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>340.3534402993358</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2991159687855</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>369.3447958805275</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>253.0308346143945</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.61083201524988</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>162.3410403666946</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>209.4182421859766</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
-        <v>286.175328697209</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>307.6640389444871</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>328.1541709055431</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.6610088831276</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.2550504090113</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>125.6698913257019</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0385432452864</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8570328736432</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>78.32463362523188</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>124.4488784861023</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.77549063691215</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.35522289712138</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>148.1920955585159</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>177.9720195032432</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>244.6349084326869</v>
+        <v>204.8807665510133</v>
       </c>
       <c r="V13" t="n">
-        <v>210.5607135509021</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>244.9460685636651</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>184.1327256161112</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.0077235791688</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.1569118905546</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980816</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>313.106111847757</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>340.3534402993358</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687855</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805275</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143945</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.6108320152497</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>162.3410403666942</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>209.4182421859757</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
-        <v>286.175328697209</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>307.6640389444871</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>328.1541709055431</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>344.6610088831276</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.2550504090113</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>125.6698913257019</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452864</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8570328736432</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4488784861023</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>103.1780851413948</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>29.92203912074918</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712138</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>148.1920955585159</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>177.9720195032432</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>244.6349084326869</v>
+        <v>219.9913805646963</v>
       </c>
       <c r="V16" t="n">
-        <v>210.5607135509021</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>244.9460685636651</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>184.1327256161112</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.0077235791688</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.1569118905546</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>323.6959619980816</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>313.106111847757</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>340.3534402993358</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>365.2991159687855</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>369.3447958805275</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>253.0308346143945</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.61083201524988</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>162.3410403666946</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>209.4182421859766</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V17" t="n">
-        <v>286.175328697209</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>307.6640389444871</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>328.1541709055431</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>344.6610088831276</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138.2550504090113</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>125.6698913257019</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>107.0385432452864</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>104.8570328736432</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>124.4488784861023</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>29.25600601213868</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.35522289712138</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>148.1920955585159</v>
+        <v>7.601081015447828</v>
       </c>
       <c r="T19" t="n">
-        <v>177.9720195032432</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>244.6349084326869</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>210.5607135509021</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>244.9460685636651</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>184.1327256161112</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>177.0077235791688</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>341.1569118905546</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>323.6959619980816</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>313.106111847757</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>340.3534402993358</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>365.2991159687855</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>369.3447958805275</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>253.0308346143945</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.61083201524988</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>162.3410403666942</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>209.418242185976</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>286.175328697209</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>307.6640389444877</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>328.1541709055431</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>344.6610088831276</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.2550504090113</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>125.6698913257019</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>107.0385432452864</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>104.8570328736432</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>124.4488784861023</v>
+        <v>25.23209651061894</v>
       </c>
       <c r="H22" t="n">
-        <v>103.1780851413948</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>54.77549063691215</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.35522289712138</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>148.1920955585159</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>49.27444973707511</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>244.6349084326869</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>210.5607135509021</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>244.9460685636651</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>184.1327256161112</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>177.0077235791688</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.2550504090113</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>125.6698913257019</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>107.0385432452864</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>104.8570328736432</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>124.4488784861023</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>29.25600601213856</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.35522289712138</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>148.1920955585159</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>177.9720195032432</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>244.6349084326869</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>210.5607135509021</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>244.9460685636651</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>184.1327256161112</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>177.0077235791688</v>
+        <v>28.43919684076969</v>
       </c>
     </row>
     <row r="26">
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>100.0025634447715</v>
       </c>
       <c r="E28" t="n">
-        <v>40.31924309660612</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>54.53475924039562</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>163.5094985658593</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>85.73480610903854</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,13 +3480,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>270.0697021486465</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3559,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>70.57092427958133</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>122.4179473152588</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>223.2521261057163</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>200.7667902156611</v>
       </c>
     </row>
     <row r="44">
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>38.56457171776582</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>89.23964247280907</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1373.898284266755</v>
+        <v>955.9368558237768</v>
       </c>
       <c r="C2" t="n">
-        <v>1004.935767326343</v>
+        <v>955.9368558237768</v>
       </c>
       <c r="D2" t="n">
-        <v>1004.935767326343</v>
+        <v>955.9368558237768</v>
       </c>
       <c r="E2" t="n">
-        <v>619.1475147280989</v>
+        <v>570.1486032255325</v>
       </c>
       <c r="F2" t="n">
-        <v>208.1616099384914</v>
+        <v>159.1626984359249</v>
       </c>
       <c r="G2" t="n">
-        <v>48.78867790201753</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="H2" t="n">
-        <v>48.78867790201753</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="I2" t="n">
-        <v>48.78867790201753</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="J2" t="n">
-        <v>145.8220260169355</v>
+        <v>138.9642385015904</v>
       </c>
       <c r="K2" t="n">
-        <v>411.9946657882377</v>
+        <v>397.0764468060698</v>
       </c>
       <c r="L2" t="n">
-        <v>794.4819895615849</v>
+        <v>769.5640925927173</v>
       </c>
       <c r="M2" t="n">
-        <v>1236.679380149756</v>
+        <v>1200.63491468901</v>
       </c>
       <c r="N2" t="n">
-        <v>1671.399989274969</v>
+        <v>1624.048915811677</v>
       </c>
       <c r="O2" t="n">
-        <v>2036.706695416109</v>
+        <v>1978.679112633668</v>
       </c>
       <c r="P2" t="n">
-        <v>2310.813134530688</v>
+        <v>2243.673398054127</v>
       </c>
       <c r="Q2" t="n">
-        <v>2439.433895100876</v>
+        <v>2365.451310684983</v>
       </c>
       <c r="R2" t="n">
-        <v>2370.258004726184</v>
+        <v>2292.214167804434</v>
       </c>
       <c r="S2" t="n">
-        <v>2370.258004726184</v>
+        <v>2292.214167804434</v>
       </c>
       <c r="T2" t="n">
-        <v>2150.637456306688</v>
+        <v>2072.310601330782</v>
       </c>
       <c r="U2" t="n">
-        <v>2150.637456306688</v>
+        <v>2072.310601330782</v>
       </c>
       <c r="V2" t="n">
-        <v>2150.637456306688</v>
+        <v>2072.310601330782</v>
       </c>
       <c r="W2" t="n">
-        <v>2150.637456306688</v>
+        <v>1719.541946060668</v>
       </c>
       <c r="X2" t="n">
-        <v>2150.637456306688</v>
+        <v>1346.076187799589</v>
       </c>
       <c r="Y2" t="n">
-        <v>1760.498124330877</v>
+        <v>955.9368558237768</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.7767857463779</v>
+        <v>988.8568241913216</v>
       </c>
       <c r="C3" t="n">
-        <v>814.3237564652509</v>
+        <v>814.4037949101946</v>
       </c>
       <c r="D3" t="n">
-        <v>665.3893468039996</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1518917985442</v>
+        <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6173338254291</v>
+        <v>359.6973722703728</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5867197897825</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>114.9801520157257</v>
+        <v>114.6915088435657</v>
       </c>
       <c r="I3" t="n">
-        <v>48.78867790201753</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="J3" t="n">
-        <v>81.32433366755083</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="K3" t="n">
-        <v>317.5006075888141</v>
+        <v>130.1591986422571</v>
       </c>
       <c r="L3" t="n">
-        <v>696.4731501252486</v>
+        <v>501.7702691852892</v>
       </c>
       <c r="M3" t="n">
-        <v>1190.695453925535</v>
+        <v>987.4020823874773</v>
       </c>
       <c r="N3" t="n">
-        <v>1713.705364890509</v>
+        <v>1501.594138030025</v>
       </c>
       <c r="O3" t="n">
-        <v>2125.741576892533</v>
+        <v>1905.563735119896</v>
       </c>
       <c r="P3" t="n">
-        <v>2439.433895100876</v>
+        <v>2212.781883695904</v>
       </c>
       <c r="Q3" t="n">
-        <v>2439.433895100876</v>
+        <v>2365.451310684983</v>
       </c>
       <c r="R3" t="n">
-        <v>2414.794306830699</v>
+        <v>2305.608548885984</v>
       </c>
       <c r="S3" t="n">
-        <v>2254.383081586895</v>
+        <v>2235.519578790678</v>
       </c>
       <c r="T3" t="n">
-        <v>2055.018830190473</v>
+        <v>2036.015895951409</v>
       </c>
       <c r="U3" t="n">
-        <v>1826.841278465134</v>
+        <v>1807.836068413619</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.841278465134</v>
+        <v>1572.683960181876</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.603921736933</v>
+        <v>1572.683960181876</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.7524215314</v>
+        <v>1364.832459976343</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.992122766446</v>
+        <v>1157.07216121139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.1074995536167</v>
+        <v>514.2749421363354</v>
       </c>
       <c r="C4" t="n">
-        <v>640.1074995536167</v>
+        <v>345.3387592084285</v>
       </c>
       <c r="D4" t="n">
-        <v>489.9908601412809</v>
+        <v>195.2221197960928</v>
       </c>
       <c r="E4" t="n">
-        <v>342.0777665588878</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="F4" t="n">
-        <v>342.0777665588878</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="G4" t="n">
-        <v>342.0777665588878</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="H4" t="n">
-        <v>188.1556552619338</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="I4" t="n">
-        <v>48.78867790201753</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="J4" t="n">
-        <v>48.78867790201753</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="K4" t="n">
-        <v>93.58729110051682</v>
+        <v>88.80529410181558</v>
       </c>
       <c r="L4" t="n">
-        <v>206.4405269748606</v>
+        <v>197.4326649365655</v>
       </c>
       <c r="M4" t="n">
-        <v>335.8175641076058</v>
+        <v>322.3541198950587</v>
       </c>
       <c r="N4" t="n">
-        <v>467.5529208910839</v>
+        <v>449.7398382896727</v>
       </c>
       <c r="O4" t="n">
-        <v>573.2155493514923</v>
+        <v>551.3848716885911</v>
       </c>
       <c r="P4" t="n">
-        <v>640.1074995536167</v>
+        <v>614.8390752546169</v>
       </c>
       <c r="Q4" t="n">
-        <v>640.1074995536167</v>
+        <v>614.8390752546169</v>
       </c>
       <c r="R4" t="n">
-        <v>640.1074995536167</v>
+        <v>614.8390752546169</v>
       </c>
       <c r="S4" t="n">
-        <v>640.1074995536167</v>
+        <v>614.8390752546169</v>
       </c>
       <c r="T4" t="n">
-        <v>640.1074995536167</v>
+        <v>614.8390752546169</v>
       </c>
       <c r="U4" t="n">
-        <v>640.1074995536167</v>
+        <v>614.8390752546169</v>
       </c>
       <c r="V4" t="n">
-        <v>640.1074995536167</v>
+        <v>614.8390752546169</v>
       </c>
       <c r="W4" t="n">
-        <v>640.1074995536167</v>
+        <v>614.8390752546169</v>
       </c>
       <c r="X4" t="n">
-        <v>640.1074995536167</v>
+        <v>614.8390752546169</v>
       </c>
       <c r="Y4" t="n">
-        <v>640.1074995536167</v>
+        <v>614.8390752546169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.683768698139</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>836.4180700913887</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>836.4180700913887</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2584.09111292427</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2330.329327562361</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1999.266440218791</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1646.497784948677</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,25 +4670,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4767,7 +4767,7 @@
         <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
         <v>235.5914466506042</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4874,40 +4874,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2067.381871868335</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>1740.416253688455</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1424.147453842235</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1080.356100004522</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>711.3670939754462</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>338.2915425809741</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>82.70484095027261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>82.70484095027261</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>271.583971909298</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>926.3073040445976</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1377.341517293006</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>1910.873421964931</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2457.652239023713</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3337.616889353168</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P11" t="n">
-        <v>3827.938619201146</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4076.224980956828</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4135.24204751363</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4066.948277801257</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>3902.96742894601</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>3691.433850980377</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3402.367862397337</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3091.596105887755</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>2760.127246387206</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2411.984813171925</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>957.7365789991978</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>783.2835497180708</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>634.3491400568196</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>475.111685051364</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>328.577127078249</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>192.2140269108671</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>101.7121325487346</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>82.70484095027261</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>176.38211044089</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>414.6463094212371</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>781.3444697339025</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.620794956219</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.143838510673</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2113.105117928728</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2423.604709404831</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2581.246267051431</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2581.101913643946</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2451.664027137426</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2259.021026815281</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2030.953179949697</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1795.801071717954</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1541.563714989752</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1333.71221478422</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1125.951916019266</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>683.8305684178259</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C13" t="n">
-        <v>556.8912842504503</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D13" t="n">
-        <v>448.7715435986458</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>342.855348776784</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>263.7395572361457</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>138.033619371396</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>138.033619371396</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>82.70484095027261</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>168.9886338724049</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>414.1369772964779</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>771.8579362201708</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1157.176142294916</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.745679475978</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1880.236438871588</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>2154.005099780444</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>2272.776556408155</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>2224.942997926215</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>2075.254012513572</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1895.484295843629</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U13" t="n">
-        <v>1648.378327729804</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V13" t="n">
-        <v>1435.690738284449</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W13" t="n">
-        <v>1188.270467008019</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X13" t="n">
-        <v>1002.277814870533</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y13" t="n">
-        <v>823.4821344875344</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2067.381871868336</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>1740.416253688456</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1424.147453842236</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1080.356100004523</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>711.3670939754463</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>338.2915425809741</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>82.7048409502726</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>82.7048409502726</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>438.9896209296511</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>965.8733918176495</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1416.907605066058</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M14" t="n">
-        <v>1950.439509737983</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N14" t="n">
-        <v>2930.19178196463</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O14" t="n">
-        <v>3433.164252843967</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>3827.938619201145</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4076.224980956827</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4135.24204751363</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4066.948277801256</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>3902.967428946009</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>3691.433850980377</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3402.367862397338</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3091.596105887756</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>2760.127246387207</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2411.984813171927</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>957.7365789991978</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>783.2835497180708</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>634.3491400568196</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>475.111685051364</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>328.577127078249</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>192.2140269108671</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>101.7121325487346</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>82.7048409502726</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>176.3821104408899</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>414.6463094212371</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>781.3444697339025</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.620794956219</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.143838510673</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2113.105117928728</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2423.604709404831</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2581.246267051431</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2581.101913643946</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2451.664027137426</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2259.021026815281</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2030.953179949697</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1795.801071717954</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1541.563714989752</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1333.71221478422</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1125.951916019266</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>683.8305684178259</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="C16" t="n">
-        <v>556.8912842504503</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D16" t="n">
-        <v>448.7715435986458</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E16" t="n">
-        <v>342.855348776784</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>342.855348776784</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>217.1494109120342</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>112.9291228904233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>82.7048409502726</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>168.9886338724048</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>414.1369772964779</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>771.8579362201707</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1157.176142294916</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.745679475978</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1880.236438871588</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>2154.005099780444</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>2272.776556408155</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>2224.942997926215</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>2075.254012513572</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1895.484295843629</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1648.378327729804</v>
+        <v>1734.129950382788</v>
       </c>
       <c r="V16" t="n">
-        <v>1435.690738284449</v>
+        <v>1479.445462176901</v>
       </c>
       <c r="W16" t="n">
-        <v>1188.270467008019</v>
+        <v>1190.028292139941</v>
       </c>
       <c r="X16" t="n">
-        <v>1002.277814870533</v>
+        <v>962.0387412419233</v>
       </c>
       <c r="Y16" t="n">
-        <v>823.4821344875344</v>
+        <v>741.2461620983931</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2067.381871868335</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>1740.416253688455</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1424.147453842235</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1080.356100004522</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>711.3670939754461</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>338.2915425809741</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>82.70484095027261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>82.70484095027261</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>438.9896209296511</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1093.712953064951</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1544.747166313359</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2078.279070985284</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2625.057888044066</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3433.164252843967</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>3827.938619201146</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4076.224980956828</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4135.24204751363</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4066.948277801257</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>3902.96742894601</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>3691.433850980377</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3402.367862397337</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3091.596105887755</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>2760.127246387206</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2411.984813171925</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>957.7365789991978</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>783.2835497180708</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>634.3491400568196</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>475.111685051364</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>328.577127078249</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>192.2140269108671</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>101.7121325487346</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>82.70484095027261</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>176.38211044089</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>414.6463094212371</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>781.3444697339025</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.620794956219</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.143838510673</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2113.105117928728</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2423.604709404831</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2581.246267051431</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2581.101913643946</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2451.664027137426</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2259.021026815281</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2030.953179949697</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1795.801071717954</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1541.563714989752</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1333.71221478422</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1125.951916019266</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>683.8305684178259</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C19" t="n">
-        <v>556.8912842504503</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>448.7715435986458</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>342.855348776784</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>237.9623000394049</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>112.2563621746551</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>82.70484095027261</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>82.70484095027261</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>168.9886338724049</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>414.1369772964779</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>771.8579362201708</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1157.176142294916</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1539.745679475978</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1880.236438871588</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>2154.005099780444</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>2272.776556408155</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>2224.942997926215</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>2075.254012513572</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T19" t="n">
-        <v>1895.484295843629</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U19" t="n">
-        <v>1648.378327729804</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V19" t="n">
-        <v>1435.690738284449</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W19" t="n">
-        <v>1188.270467008019</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X19" t="n">
-        <v>1002.277814870533</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y19" t="n">
-        <v>823.4821344875344</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2067.381871868335</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>1740.416253688455</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1424.147453842236</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1080.356100004523</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>711.3670939754463</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>338.2915425809741</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>82.70484095027261</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
-        <v>82.70484095027261</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>271.583971909298</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>703.273946445629</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1154.308159694038</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M20" t="n">
-        <v>1687.840064365962</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N20" t="n">
-        <v>2234.618881424745</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O20" t="n">
-        <v>3114.5835317542</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P20" t="n">
-        <v>3827.938619201146</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q20" t="n">
-        <v>4076.224980956828</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4135.24204751363</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4066.948277801257</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>3902.96742894601</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>3691.433850980378</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3402.367862397338</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3091.596105887755</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>2760.127246387206</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2411.984813171925</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>957.7365789991978</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>783.2835497180708</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>634.3491400568196</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>475.111685051364</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>328.577127078249</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>192.2140269108671</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>101.7121325487346</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>82.70484095027261</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>176.38211044089</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>414.6463094212371</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>781.3444697339025</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.620794956219</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.143838510673</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2113.105117928728</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2423.604709404831</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2581.246267051431</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2581.101913643946</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2451.664027137426</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2259.021026815281</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2030.953179949697</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1795.801071717954</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1541.563714989752</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1333.71221478422</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1125.951916019266</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>813.8281136361777</v>
+        <v>533.5270475124405</v>
       </c>
       <c r="C22" t="n">
-        <v>686.8888294688021</v>
+        <v>364.5908645845336</v>
       </c>
       <c r="D22" t="n">
-        <v>578.7690888169976</v>
+        <v>364.5908645845336</v>
       </c>
       <c r="E22" t="n">
-        <v>472.8528939951358</v>
+        <v>364.5908645845336</v>
       </c>
       <c r="F22" t="n">
-        <v>367.9598452577567</v>
+        <v>364.5908645845336</v>
       </c>
       <c r="G22" t="n">
-        <v>242.2539073930069</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>138.033619371396</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>82.70484095027261</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>168.9886338724049</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>414.1369772964779</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>771.8579362201708</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1157.176142294916</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.745679475978</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1880.236438871588</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>2154.005099780444</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>2272.776556408155</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>2224.942997926215</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>2075.254012513572</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>2025.481841061981</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1778.375872948156</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1565.6882835028</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W22" t="n">
-        <v>1318.268012226371</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X22" t="n">
-        <v>1132.275360088885</v>
+        <v>935.9680914862104</v>
       </c>
       <c r="Y22" t="n">
-        <v>953.4796797058862</v>
+        <v>715.1755123426802</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -6004,7 +6004,7 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
         <v>4195.497197679678</v>
@@ -6016,25 +6016,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.6867619159476</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C25" t="n">
-        <v>569.747477748572</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D25" t="n">
-        <v>461.6277370967675</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>355.7115422749057</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>250.8184935375266</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>125.1125556727768</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6147,52 +6147,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>181.8448273705267</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>426.9931707945997</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>784.7141297182925</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1170.032335793038</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1552.601872974099</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1893.092632369709</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>2166.861293278565</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>2285.632749906277</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>2237.799191424336</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>2088.110206011694</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1908.340489341751</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.234521227926</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1448.54693178257</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>1201.126660506141</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>1015.134008368655</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y25" t="n">
-        <v>836.3383279856561</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001584</v>
@@ -6223,40 +6223,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
         <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1521.866738172571</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2055.398642844496</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903278</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604875</v>
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6302,7 +6302,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>623.0432015923082</v>
+        <v>533.2127443498364</v>
       </c>
       <c r="C28" t="n">
-        <v>454.1070186644013</v>
+        <v>364.2765614219295</v>
       </c>
       <c r="D28" t="n">
-        <v>303.9903792520655</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736755</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736755</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W28" t="n">
-        <v>1253.473796464095</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X28" t="n">
-        <v>1025.484245566078</v>
+        <v>935.6537883236062</v>
       </c>
       <c r="Y28" t="n">
-        <v>804.6916664225479</v>
+        <v>714.8612091800761</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6545,7 +6545,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320243</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>692.8920075170273</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C31" t="n">
-        <v>692.8920075170273</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D31" t="n">
-        <v>542.7753681046916</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E31" t="n">
-        <v>394.8622745222984</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
-        <v>247.9723270243881</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W31" t="n">
-        <v>874.540472347267</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X31" t="n">
-        <v>874.540472347267</v>
+        <v>799.2098199272547</v>
       </c>
       <c r="Y31" t="n">
-        <v>874.540472347267</v>
+        <v>578.4172407837245</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,67 +6922,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320242</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839438</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839438</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839438</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839438</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839438</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839438</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839438</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1869.74265185315</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1678.056767679976</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1456.290152249502</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1456.290152249502</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1456.290152249502</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>1456.290152249502</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>1228.300601351485</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>1007.508022207955</v>
       </c>
     </row>
     <row r="38">
@@ -7153,13 +7153,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7177,19 +7177,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>482.6709267727787</v>
+        <v>658.1567207524339</v>
       </c>
       <c r="C40" t="n">
-        <v>313.7347438448718</v>
+        <v>489.220537824527</v>
       </c>
       <c r="D40" t="n">
-        <v>313.7347438448718</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E40" t="n">
-        <v>313.7347438448718</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F40" t="n">
-        <v>166.8447963469614</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G40" t="n">
-        <v>166.8447963469614</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1475.554715057174</v>
+        <v>1832.688973867069</v>
       </c>
       <c r="V40" t="n">
-        <v>1220.870226851287</v>
+        <v>1578.004485661182</v>
       </c>
       <c r="W40" t="n">
-        <v>931.4530568143261</v>
+        <v>1288.587315624221</v>
       </c>
       <c r="X40" t="n">
-        <v>703.4635059163088</v>
+        <v>1060.597764726204</v>
       </c>
       <c r="Y40" t="n">
-        <v>482.6709267727787</v>
+        <v>839.8051855826736</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7408,7 +7408,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
@@ -7426,31 +7426,31 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7496,7 +7496,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.5269503710301</v>
+        <v>510.7061876676659</v>
       </c>
       <c r="C43" t="n">
-        <v>393.5907674431232</v>
+        <v>510.7061876676659</v>
       </c>
       <c r="D43" t="n">
-        <v>243.4741280307875</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7599,22 +7599,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1509.069652587648</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>1254.385164381761</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W43" t="n">
-        <v>964.9679943448</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X43" t="n">
-        <v>964.9679943448</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.1754152012699</v>
+        <v>692.3546524979056</v>
       </c>
     </row>
     <row r="44">
@@ -7627,13 +7627,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
@@ -7645,49 +7645,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216375</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>410.1538185715858</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="C46" t="n">
-        <v>410.1538185715858</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="D46" t="n">
-        <v>410.1538185715858</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E46" t="n">
-        <v>410.1538185715858</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1917.389353258476</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1725.703469085302</v>
       </c>
       <c r="T46" t="n">
-        <v>1584.686071686221</v>
+        <v>1503.936853654828</v>
       </c>
       <c r="U46" t="n">
-        <v>1584.686071686221</v>
+        <v>1503.936853654828</v>
       </c>
       <c r="V46" t="n">
-        <v>1330.001583480334</v>
+        <v>1249.252365448941</v>
       </c>
       <c r="W46" t="n">
-        <v>1040.584413443373</v>
+        <v>959.8351954119806</v>
       </c>
       <c r="X46" t="n">
-        <v>812.5948625453557</v>
+        <v>959.8351954119806</v>
       </c>
       <c r="Y46" t="n">
-        <v>591.8022834018255</v>
+        <v>739.0426162684505</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>94.20885155886715</v>
+        <v>64.5800890226302</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>115.1204337631302</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.49421911426668</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028826</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8707,13 +8707,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>96.51248837454494</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>195.0145426243958</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>60.66917680434125</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>308.2160544652165</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>98.85919277422676</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7011105564207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9880,16 +9880,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>132.9990175570132</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>76.45227440777364</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>29.61882225791909</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260154</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>25.51948462477341</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>103.1780851413948</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>81.33107165459958</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500053</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>24.85345151616297</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>66.22045764091661</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>73.92207912925615</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>54.77549063691215</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>182.1679443159941</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>140.7937117484093</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>128.6975697661681</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>73.92207912925628</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>54.77549063691215</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>190.1454565113251</v>
       </c>
     </row>
     <row r="26">
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>48.61290957344083</v>
       </c>
       <c r="E28" t="n">
-        <v>106.1147195499631</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>111.4910490186326</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>62.20015682317788</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>3.197346561008786</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.14213605696636</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>74.18409063473945</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>163.7938908903541</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>62.95971209989662</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>17.81786313643366</v>
       </c>
     </row>
     <row r="44">
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>50.36758095228151</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3093068033601</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>686042.2740946828</v>
+        <v>685869.3626787311</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631103.5355312787</v>
+        <v>623391.6057536905</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>631103.5355312787</v>
+        <v>623391.6057536905</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>631103.5355312787</v>
+        <v>623391.6057536904</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>631103.5355312787</v>
+        <v>623391.6057536905</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>641233.6965656371</v>
+        <v>623391.6057536904</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>623391.6057536904</v>
+        <v>623391.6057536905</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>623391.6057536904</v>
+        <v>623391.6057536905</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>623391.6057536904</v>
+        <v>623391.6057536905</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642837</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>817953.0281898959</v>
+        <v>794163.5737739662</v>
       </c>
       <c r="F2" t="n">
-        <v>817953.0281898957</v>
+        <v>794163.5737739659</v>
       </c>
       <c r="G2" t="n">
-        <v>817953.0281898957</v>
+        <v>794163.5737739661</v>
       </c>
       <c r="H2" t="n">
-        <v>817953.0281898957</v>
+        <v>794163.5737739658</v>
       </c>
       <c r="I2" t="n">
-        <v>817953.0281898957</v>
+        <v>794163.5737739659</v>
       </c>
       <c r="J2" t="n">
-        <v>794163.5737739658</v>
+        <v>794163.5737739663</v>
       </c>
       <c r="K2" t="n">
-        <v>794163.5737739658</v>
+        <v>794163.5737739662</v>
       </c>
       <c r="L2" t="n">
         <v>794163.5737739659</v>
       </c>
       <c r="M2" t="n">
-        <v>794163.5737739662</v>
+        <v>794163.5737739661</v>
       </c>
       <c r="N2" t="n">
-        <v>794163.5737739659</v>
+        <v>794163.5737739661</v>
       </c>
       <c r="O2" t="n">
-        <v>794163.5737739659</v>
+        <v>794163.5737739661</v>
       </c>
       <c r="P2" t="n">
-        <v>794163.5737739659</v>
+        <v>794163.5737739663</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>514932.2460552459</v>
+        <v>493391.6844106457</v>
       </c>
       <c r="C3" t="n">
-        <v>71319.01234894875</v>
+        <v>91792.63957447129</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712656.7510332197</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42734.14789017563</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>159565.8105124435</v>
+        <v>154726.5356832154</v>
       </c>
       <c r="K3" t="n">
-        <v>16581.91113571382</v>
+        <v>21342.0985822013</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89594.62928262031</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229954.3653228462</v>
+        <v>235704.9591760463</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26426,22 +26426,22 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>60371.09069970024</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="F4" t="n">
-        <v>60371.09069970022</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="G4" t="n">
-        <v>60371.09069970024</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
-        <v>60371.0906997002</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
-        <v>42242.721256406</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
         <v>28561.83935289575</v>
@@ -26450,16 +26450,16 @@
         <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="N4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="O4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289574</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77732.73194373876</v>
+        <v>76261.10613140109</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>90108.14210422119</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>90108.14210422119</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>90108.14210422119</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>90108.14210422119</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>99878.84916279376</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1577.573457547609</v>
+        <v>15684.02014619065</v>
       </c>
       <c r="C6" t="n">
-        <v>456941.2639888916</v>
+        <v>436467.6367633691</v>
       </c>
       <c r="D6" t="n">
         <v>528260.2763378402</v>
       </c>
       <c r="E6" t="n">
-        <v>-45260.17418910496</v>
+        <v>-58226.39331627571</v>
       </c>
       <c r="F6" t="n">
-        <v>667396.5768441147</v>
+        <v>669151.0206771308</v>
       </c>
       <c r="G6" t="n">
-        <v>667396.5768441146</v>
+        <v>669151.0206771309</v>
       </c>
       <c r="H6" t="n">
-        <v>667396.5768441147</v>
+        <v>669151.0206771307</v>
       </c>
       <c r="I6" t="n">
-        <v>633020.0913386607</v>
+        <v>669151.0206771308</v>
       </c>
       <c r="J6" t="n">
-        <v>508980.450752655</v>
+        <v>514424.4849939157</v>
       </c>
       <c r="K6" t="n">
-        <v>651964.3501293848</v>
+        <v>647808.9220949297</v>
       </c>
       <c r="L6" t="n">
-        <v>668546.2612650987</v>
+        <v>669151.0206771308</v>
       </c>
       <c r="M6" t="n">
-        <v>578951.6319824787</v>
+        <v>539508.7058381861</v>
       </c>
       <c r="N6" t="n">
-        <v>668546.2612650986</v>
+        <v>669151.0206771309</v>
       </c>
       <c r="O6" t="n">
-        <v>668546.2612650987</v>
+        <v>669151.0206771309</v>
       </c>
       <c r="P6" t="n">
-        <v>668546.2612650987</v>
+        <v>669151.0206771311</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>322.281501752543</v>
+        <v>306.359917843548</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>609.8584737752191</v>
+        <v>591.3628276712457</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1033.810511878408</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>1033.810511878407</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
-        <v>1033.810511878408</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="H4" t="n">
-        <v>1033.810511878408</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>322.281501752543</v>
+        <v>306.359917843548</v>
       </c>
       <c r="C3" t="n">
-        <v>55.46216246454367</v>
+        <v>71.38374637353866</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>609.8584737752191</v>
+        <v>591.3628276712457</v>
       </c>
       <c r="C4" t="n">
-        <v>64.42879897933653</v>
+        <v>82.92444508330988</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>359.523239123852</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>160.7024187265226</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>609.8584737752193</v>
+        <v>591.3628276712457</v>
       </c>
       <c r="K4" t="n">
-        <v>64.42879897933631</v>
+        <v>82.92444508330988</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.5232391238516</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>609.8584737752191</v>
+        <v>591.3628276712457</v>
       </c>
       <c r="K4" t="n">
-        <v>64.42879897933653</v>
+        <v>82.92444508330988</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.523239123852</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>256.2279307718801</v>
+        <v>303.3360043554595</v>
       </c>
       <c r="H2" t="n">
-        <v>326.2061973727592</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>160.5271153138635</v>
+        <v>162.9947207958797</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>179.4964928176581</v>
+        <v>180.955037916457</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2420045856648</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>32.72485932357289</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>90.05514493526371</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27517,10 +27517,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>80.27348839483865</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4098159946427</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>4.677211688799645</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>52.27093029487726</v>
+        <v>54.30080173848798</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.4975364870604</v>
+        <v>39.90169565731864</v>
       </c>
       <c r="R4" t="n">
-        <v>151.1621732186764</v>
+        <v>152.4531265631664</v>
       </c>
       <c r="S4" t="n">
-        <v>213.8885055966505</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>225.4624368737947</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2873295366464</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>369.9326511385497</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27669,10 +27669,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>158.9993246194566</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>24.62049154535643</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.49548950841407</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>74.74425144011371</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.59587156758265</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>41.57692977292527</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.2956040271459</v>
+        <v>1.231597659672554</v>
       </c>
       <c r="H2" t="n">
-        <v>13.26860474300796</v>
+        <v>12.61309953212155</v>
       </c>
       <c r="I2" t="n">
-        <v>49.94877425654237</v>
+        <v>47.48116877452618</v>
       </c>
       <c r="J2" t="n">
-        <v>109.9627722989745</v>
+        <v>104.5303118676335</v>
       </c>
       <c r="K2" t="n">
-        <v>164.8056907680605</v>
+        <v>156.6638408015727</v>
       </c>
       <c r="L2" t="n">
-        <v>204.4560325138268</v>
+        <v>194.3553476787767</v>
       </c>
       <c r="M2" t="n">
-        <v>227.4967306315827</v>
+        <v>216.2577725589785</v>
       </c>
       <c r="N2" t="n">
-        <v>231.177865573711</v>
+        <v>219.7570494095231</v>
       </c>
       <c r="O2" t="n">
-        <v>218.294703028779</v>
+        <v>207.5103501811541</v>
       </c>
       <c r="P2" t="n">
-        <v>186.3094786086145</v>
+        <v>177.105282957988</v>
       </c>
       <c r="Q2" t="n">
-        <v>139.910659386452</v>
+        <v>132.9986917709646</v>
       </c>
       <c r="R2" t="n">
-        <v>81.38498647020374</v>
+        <v>77.36434648940612</v>
       </c>
       <c r="S2" t="n">
-        <v>29.52357676858723</v>
+        <v>28.06503166978835</v>
       </c>
       <c r="T2" t="n">
-        <v>5.671506628831182</v>
+        <v>5.391318755216607</v>
       </c>
       <c r="U2" t="n">
-        <v>0.103648322171672</v>
+        <v>0.09852781277380428</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6932092679205641</v>
+        <v>0.6589628421540467</v>
       </c>
       <c r="H3" t="n">
-        <v>6.694942140180186</v>
+        <v>6.364193765014083</v>
       </c>
       <c r="I3" t="n">
-        <v>23.86707347884399</v>
+        <v>22.68797504784766</v>
       </c>
       <c r="J3" t="n">
-        <v>65.49307386086349</v>
+        <v>62.25753764403649</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9380948115413</v>
+        <v>106.4080480683576</v>
       </c>
       <c r="L3" t="n">
-        <v>150.5145824930155</v>
+        <v>143.0787521966495</v>
       </c>
       <c r="M3" t="n">
-        <v>175.6434184551359</v>
+        <v>166.9661552247336</v>
       </c>
       <c r="N3" t="n">
-        <v>180.2921770983401</v>
+        <v>171.3852525302316</v>
       </c>
       <c r="O3" t="n">
-        <v>164.9321191091528</v>
+        <v>156.784023238292</v>
       </c>
       <c r="P3" t="n">
-        <v>132.3725662575681</v>
+        <v>125.8330009723811</v>
       </c>
       <c r="Q3" t="n">
-        <v>88.48755497175483</v>
+        <v>84.11602876338323</v>
       </c>
       <c r="R3" t="n">
-        <v>43.03978244159434</v>
+        <v>40.91349997163459</v>
       </c>
       <c r="S3" t="n">
-        <v>12.87605811247187</v>
+        <v>12.23994577422099</v>
       </c>
       <c r="T3" t="n">
-        <v>2.794119812364027</v>
+        <v>2.656082683945476</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04560587288951082</v>
+        <v>0.04335281856276624</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.581163363816061</v>
+        <v>0.5524523108654144</v>
       </c>
       <c r="H4" t="n">
-        <v>5.167070634655528</v>
+        <v>4.911803272967051</v>
       </c>
       <c r="I4" t="n">
-        <v>17.47716734094119</v>
+        <v>16.61374767584356</v>
       </c>
       <c r="J4" t="n">
-        <v>41.08824982179551</v>
+        <v>39.05837837818479</v>
       </c>
       <c r="K4" t="n">
-        <v>67.52061626881144</v>
+        <v>64.18491393509085</v>
       </c>
       <c r="L4" t="n">
-        <v>86.40314228952603</v>
+        <v>82.13459174448171</v>
       </c>
       <c r="M4" t="n">
-        <v>91.09999892982127</v>
+        <v>86.59941087502125</v>
       </c>
       <c r="N4" t="n">
-        <v>88.93384457377965</v>
+        <v>84.54027044361386</v>
       </c>
       <c r="O4" t="n">
-        <v>82.14479982374655</v>
+        <v>78.08662299395877</v>
       </c>
       <c r="P4" t="n">
-        <v>70.28906720189885</v>
+        <v>66.81659585230426</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.66450676463398</v>
+        <v>46.26034759437574</v>
       </c>
       <c r="R4" t="n">
-        <v>26.13121815849307</v>
+        <v>24.84026481400308</v>
       </c>
       <c r="S4" t="n">
-        <v>10.12809244032171</v>
+        <v>9.627737090263626</v>
       </c>
       <c r="T4" t="n">
-        <v>2.483152554486805</v>
+        <v>2.36047805551586</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03169981984451246</v>
+        <v>0.03013376241084082</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32569,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -33265,10 +33265,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34216,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>98.01348294436194</v>
+        <v>92.58102251302098</v>
       </c>
       <c r="K2" t="n">
-        <v>268.8612522942447</v>
+        <v>260.7194023277569</v>
       </c>
       <c r="L2" t="n">
-        <v>386.35083209429</v>
+        <v>376.2501472592399</v>
       </c>
       <c r="M2" t="n">
-        <v>446.6640308971425</v>
+        <v>435.4250728245382</v>
       </c>
       <c r="N2" t="n">
-        <v>439.1117263891043</v>
+        <v>427.6909102249164</v>
       </c>
       <c r="O2" t="n">
-        <v>368.9966728698377</v>
+        <v>358.2123200222128</v>
       </c>
       <c r="P2" t="n">
-        <v>276.8751910248276</v>
+        <v>267.6709953742011</v>
       </c>
       <c r="Q2" t="n">
-        <v>129.9199601719071</v>
+        <v>123.0079925564198</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>32.86429875306395</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>238.5618928497609</v>
+        <v>83.68704285712877</v>
       </c>
       <c r="L3" t="n">
-        <v>382.8005480166005</v>
+        <v>375.3647177202345</v>
       </c>
       <c r="M3" t="n">
-        <v>499.2144482831175</v>
+        <v>490.5371850527152</v>
       </c>
       <c r="N3" t="n">
-        <v>528.2928393585603</v>
+        <v>519.3859147904518</v>
       </c>
       <c r="O3" t="n">
-        <v>416.1981939414379</v>
+        <v>408.0500980705771</v>
       </c>
       <c r="P3" t="n">
-        <v>316.860927483175</v>
+        <v>310.321362197988</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>154.2115424132108</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>45.25112444292859</v>
+        <v>41.915422109208</v>
       </c>
       <c r="L4" t="n">
-        <v>113.9931675498422</v>
+        <v>109.7246170047978</v>
       </c>
       <c r="M4" t="n">
-        <v>130.6838758916618</v>
+        <v>126.1832878368618</v>
       </c>
       <c r="N4" t="n">
-        <v>133.0660169530082</v>
+        <v>128.6724428228425</v>
       </c>
       <c r="O4" t="n">
-        <v>106.7299277377862</v>
+        <v>102.6717509079984</v>
       </c>
       <c r="P4" t="n">
-        <v>67.56762646679233</v>
+        <v>64.09515511719775</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
@@ -35427,13 +35427,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>495.2744745939168</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.15534638599217</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>247.6245893172455</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>361.334301943124</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>389.2103091664098</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>386.433875940466</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>343.9300599955657</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>276.5340009180364</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>119.9711683108196</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,10 +35649,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>532.2058291797963</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>516.2592911966734</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,7 +35661,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35670,7 +35670,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.15534638599217</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>247.6245893172455</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>361.334301943124</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>389.2103091664098</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>386.433875940466</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>343.9300599955657</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5340009180364</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>119.9711683108196</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,16 +35898,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>816.2690553534356</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.15534638599217</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>247.6245893172455</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>361.334301943124</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>389.2103091664098</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>386.433875940466</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>343.9300599955657</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>276.5340009180364</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>119.9711683108196</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>436.0504793296273</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36135,13 +36135,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36217,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.15534638599217</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>247.6245893172455</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>361.334301943124</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>389.2103091664098</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>386.433875940466</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>343.9300599955657</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>276.5340009180364</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>119.9711683108196</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>684.4630967757926</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.15534638599217</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>247.6245893172455</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>361.334301943124</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>389.2103091664098</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>386.433875940466</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>343.9300599955657</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>276.5340009180364</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>119.9711683108196</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>588.5891319493454</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>615.3733902380004</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36913,10 +36913,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37329,7 +37329,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>89.23202080014387</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>502.5482327048862</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37864,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38019,19 +38019,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814159</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
